--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woo/Desktop/boostcamp_git_exmaple/gitflowex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5532EC1C-04FC-8546-8939-4E99B661AF03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E88846-7AD9-C04F-9251-26721B59539B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,11 +405,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>고민 중~</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>버튼 클릭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고민 중~!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1404,10 +1404,10 @@
   <dimension ref="A1:DA56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -3819,7 +3819,7 @@
         <v>64</v>
       </c>
       <c r="D35" s="95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -4359,7 +4359,7 @@
         <v>97</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
